--- a/biology/Zoologie/Amolops/Amolops.xlsx
+++ b/biology/Zoologie/Amolops/Amolops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amolops est un genre d'amphibiens de la famille des Ranidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amolops est un genre d'amphibiens de la famille des Ranidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 50 espèces de ce genre se rencontrent dans le nord de l'Asie du Sud, en République populaire de Chine et en Asie du Sud-Est continentale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 50 espèces de ce genre se rencontrent dans le nord de l'Asie du Sud, en République populaire de Chine et en Asie du Sud-Est continentale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (13 février 2016)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (13 février 2016) :
 Amolops afghanus (Günther, 1858)
 Amolops akhaorum Stuart, Bain, Phimmachak &amp; Spence, 2010
 Amolops aniqiaoensis Dong, Rao &amp; Lü, 2005
@@ -622,7 +638,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cope, 1865 : Sketch of the primary groups of Batrachia s. Salientia. Natural History Review, New Series, vol. 5, p. 97-120 (texte intégral).</t>
         </is>
